--- a/Face_Name-prof_pairs.xlsx
+++ b/Face_Name-prof_pairs.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassl\OneDrive - Lund University\Biofinder\fMRI-tasks\FacesNamesProfessions_fMRI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1A6FFB-B68C-4CFD-8F23-F72022ABBD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,557 +36,922 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="180">
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrAns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StimFile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letter1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letter2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letter3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recall_names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O5.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Per</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O6.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mikael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O7.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O8.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O9.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O10.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O11.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O12.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O13.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O14.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arvid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O15.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fredrik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O16.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gunnar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O17.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O18.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O19.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O20.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O21.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emanuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O22.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O23.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oskar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O24.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hugo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O25.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andreas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O26.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Å.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O27.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O28.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stefan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O29.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/O30.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recall_proffessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassabiträde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lärare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journalist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fritidspedagog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konstnär</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH6.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parkeringsvakt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Målare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Företagssäljare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psykolog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingenjör</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH13.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagerarbetare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH14.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snickare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH16.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sjuksköterska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH17.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servitör</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH18.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Författare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djuruppfödare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Läkare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH21.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receptionist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bibliotikarie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banktjänsteman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH24.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH25.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkitekt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH26.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Politiker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH27.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golvläggare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH28.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tolk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH29.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fotograf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_Faces/SH30.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_faces/P1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_faces/P2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johannes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_faces/P3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_faces/P4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_faces/P5.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_profession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_faces/P6.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skådespelare</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="303">
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>corrAns</t>
+  </si>
+  <si>
+    <t>StimFile</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>Letter1</t>
+  </si>
+  <si>
+    <t>Letter2</t>
+  </si>
+  <si>
+    <t>Letter3</t>
+  </si>
+  <si>
+    <t>recall_names</t>
+  </si>
+  <si>
+    <t>Images_Faces/O1.jpg</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>F.</t>
+  </si>
+  <si>
+    <t>K.</t>
+  </si>
+  <si>
+    <t>L.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O2.jpg</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>R.</t>
+  </si>
+  <si>
+    <t>O.</t>
+  </si>
+  <si>
+    <t>E.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O3.jpg</t>
+  </si>
+  <si>
+    <t>Lars</t>
+  </si>
+  <si>
+    <t>P.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O4.jpg</t>
+  </si>
+  <si>
+    <t>Anders</t>
+  </si>
+  <si>
+    <t>A.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O5.jpg</t>
+  </si>
+  <si>
+    <t>Per</t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O6.jpg</t>
+  </si>
+  <si>
+    <t>Mikael</t>
+  </si>
+  <si>
+    <t>M.</t>
+  </si>
+  <si>
+    <t>C.</t>
+  </si>
+  <si>
+    <t>G.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O7.jpg</t>
+  </si>
+  <si>
+    <t>Johan</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O8.jpg</t>
+  </si>
+  <si>
+    <t>Olof</t>
+  </si>
+  <si>
+    <t>V.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O9.jpg</t>
+  </si>
+  <si>
+    <t>Nils</t>
+  </si>
+  <si>
+    <t>N.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O10.jpg</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Images_Faces/O11.jpg</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>S.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O12.jpg</t>
+  </si>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>H.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O13.jpg</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Images_Faces/O14.jpg</t>
+  </si>
+  <si>
+    <t>Arvid</t>
+  </si>
+  <si>
+    <t>I.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O15.jpg</t>
+  </si>
+  <si>
+    <t>Fredrik</t>
+  </si>
+  <si>
+    <t>Images_Faces/O16.jpg</t>
+  </si>
+  <si>
+    <t>Gunnar</t>
+  </si>
+  <si>
+    <t>D.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O17.jpg</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>T.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O18.jpg</t>
+  </si>
+  <si>
+    <t>Sven</t>
+  </si>
+  <si>
+    <t>U.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O19.jpg</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Images_Faces/O20.jpg</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Images_Faces/O21.jpg</t>
+  </si>
+  <si>
+    <t>Emanuel</t>
+  </si>
+  <si>
+    <t>Images_Faces/O22.jpg</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Images_Faces/O23.jpg</t>
+  </si>
+  <si>
+    <t>Oskar</t>
+  </si>
+  <si>
+    <t>Images_Faces/O24.jpg</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Images_Faces/O25.jpg</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Images_Faces/O26.jpg</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Å.</t>
+  </si>
+  <si>
+    <t>Images_Faces/O27.jpg</t>
+  </si>
+  <si>
+    <t>Christer</t>
+  </si>
+  <si>
+    <t>Images_Faces/O28.jpg</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Images_Faces/O29.jpg</t>
+  </si>
+  <si>
+    <t>Isak</t>
+  </si>
+  <si>
+    <t>Images_Faces/O30.jpg</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>recall_proffessions</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH1.png</t>
+  </si>
+  <si>
+    <t>Kassabiträde</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH2.png</t>
+  </si>
+  <si>
+    <t>Lärare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH3.png</t>
+  </si>
+  <si>
+    <t>Journalist</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH4.png</t>
+  </si>
+  <si>
+    <t>Fritidspedagog</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH5.png</t>
+  </si>
+  <si>
+    <t>Konstnär</t>
+  </si>
+  <si>
+    <t>W.</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH6.png</t>
+  </si>
+  <si>
+    <t>Parkeringsvakt</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH7.png</t>
+  </si>
+  <si>
+    <t>Bonde</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH8.png</t>
+  </si>
+  <si>
+    <t>Målare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH9.png</t>
+  </si>
+  <si>
+    <t>Företagssäljare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH10.png</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH11.png</t>
+  </si>
+  <si>
+    <t>Psykolog</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH12.png</t>
+  </si>
+  <si>
+    <t>Ingenjör</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH13.png</t>
+  </si>
+  <si>
+    <t>Lagerarbetare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH14.png</t>
+  </si>
+  <si>
+    <t>Snickare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH15.png</t>
+  </si>
+  <si>
+    <t>Murare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH16.png</t>
+  </si>
+  <si>
+    <t>Sjuksköterska</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH17.png</t>
+  </si>
+  <si>
+    <t>Servitör</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH18.png</t>
+  </si>
+  <si>
+    <t>Författare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH19.png</t>
+  </si>
+  <si>
+    <t>Djuruppfödare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH20.png</t>
+  </si>
+  <si>
+    <t>Läkare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH21.png</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH22.png</t>
+  </si>
+  <si>
+    <t>Bibliotikarie</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH23.png</t>
+  </si>
+  <si>
+    <t>Banktjänsteman</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH24.png</t>
+  </si>
+  <si>
+    <t>Revisor</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH25.png</t>
+  </si>
+  <si>
+    <t>Arkitekt</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH26.png</t>
+  </si>
+  <si>
+    <t>Politiker</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH27.png</t>
+  </si>
+  <si>
+    <t>Golvläggare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH28.png</t>
+  </si>
+  <si>
+    <t>Tolk</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH29.png</t>
+  </si>
+  <si>
+    <t>Fotograf</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH30.png</t>
+  </si>
+  <si>
+    <t>Brandman</t>
+  </si>
+  <si>
+    <t>Demo_names</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Images_faces/P1.jpg</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Images_faces/P2.jpg</t>
+  </si>
+  <si>
+    <t>Johannes</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Images_faces/P3.jpg</t>
+  </si>
+  <si>
+    <t>Linus</t>
+  </si>
+  <si>
+    <t>Images_faces/P4.jpg</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Images_faces/P5.jpg</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Demo_profession</t>
+  </si>
+  <si>
+    <t>Images_faces/P6.jpg</t>
+  </si>
+  <si>
+    <t>Skådespelare</t>
   </si>
   <si>
     <t xml:space="preserve">S. </t>
   </si>
   <si>
-    <t xml:space="preserve">Images_faces/P7.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_faces/P8.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personlig assistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_faces/P9.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Städare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images_faces/P10.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socionom</t>
+    <t>Images_faces/P7.jpg</t>
+  </si>
+  <si>
+    <t>Soldat</t>
+  </si>
+  <si>
+    <t>Images_faces/P8.jpg</t>
+  </si>
+  <si>
+    <t>Personlig assistent</t>
+  </si>
+  <si>
+    <t>Images_faces/P9.jpg</t>
+  </si>
+  <si>
+    <t>Städare</t>
+  </si>
+  <si>
+    <t>Images_faces/P10.jpg</t>
+  </si>
+  <si>
+    <t>Socionom</t>
+  </si>
+  <si>
+    <t>Images_Faces/O31.jpg</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Images_Faces/O32.jpg</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Images_Faces/O33.jpg</t>
+  </si>
+  <si>
+    <t>Mattias</t>
+  </si>
+  <si>
+    <t>Images_Faces/O34.jpg</t>
+  </si>
+  <si>
+    <t>Mats</t>
+  </si>
+  <si>
+    <t>Images_Faces/O35.jpg</t>
+  </si>
+  <si>
+    <t>Henrik</t>
+  </si>
+  <si>
+    <t>Images_Faces/O36.jpg</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Images_Faces/O37.jpg</t>
+  </si>
+  <si>
+    <t>Ulf</t>
+  </si>
+  <si>
+    <t>Images_Faces/O38.jpg</t>
+  </si>
+  <si>
+    <t>Leif</t>
+  </si>
+  <si>
+    <t>Images_Faces/O39.jpg</t>
+  </si>
+  <si>
+    <t>Björn</t>
+  </si>
+  <si>
+    <t>Images_Faces/O40.jpg</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>Images_Faces/O41.jpg</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Images_Faces/O42.jpg</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Images_Faces/O43.jpg</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Images_Faces/O44.jpg</t>
+  </si>
+  <si>
+    <t>Viktor</t>
+  </si>
+  <si>
+    <t>Images_Faces/O45.jpg</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Images_Faces/O46.jpg</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Images_Faces/O47.jpg</t>
+  </si>
+  <si>
+    <t>Niklas</t>
+  </si>
+  <si>
+    <t>Images_Faces/O48.jpg</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Images_Faces/O49.jpg</t>
+  </si>
+  <si>
+    <t>Images_Faces/O50.jpg</t>
+  </si>
+  <si>
+    <t>Patrik</t>
+  </si>
+  <si>
+    <t>Images_Faces/O51.jpg</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Images_Faces/O52.jpg</t>
+  </si>
+  <si>
+    <t>Håkan</t>
+  </si>
+  <si>
+    <t>Images_Faces/O53.jpg</t>
+  </si>
+  <si>
+    <t>Christoffer</t>
+  </si>
+  <si>
+    <t>Images_Faces/O54.jpg</t>
+  </si>
+  <si>
+    <t>Rickard</t>
+  </si>
+  <si>
+    <t>Images_Faces/O55.jpg</t>
+  </si>
+  <si>
+    <t>Kjell</t>
+  </si>
+  <si>
+    <t>Images_Faces/O56.jpg</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Images_Faces/O57.jpg</t>
+  </si>
+  <si>
+    <t>Joakim</t>
+  </si>
+  <si>
+    <t>Images_Faces/O58.jpg</t>
+  </si>
+  <si>
+    <t>Stig</t>
+  </si>
+  <si>
+    <t>Images_Faces/O59.jpg</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Images_Faces/O60.jpg</t>
+  </si>
+  <si>
+    <t>Wilhelm</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH31.png</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Fastighetsskötare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH32.png</t>
+  </si>
+  <si>
+    <t>Smed</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH33.png</t>
+  </si>
+  <si>
+    <t>Elektriker</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH34.png</t>
+  </si>
+  <si>
+    <t>Marknadsförare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH35.png</t>
+  </si>
+  <si>
+    <t>Kock</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH36.png</t>
+  </si>
+  <si>
+    <t>Bagare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH37.png</t>
+  </si>
+  <si>
+    <t>Rektor</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH38.png</t>
+  </si>
+  <si>
+    <t>Maskinoperatör</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH39.png</t>
+  </si>
+  <si>
+    <t>Brevbärare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH40.png</t>
+  </si>
+  <si>
+    <t>Musiker</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH41.png</t>
+  </si>
+  <si>
+    <t>Säkerhetsvakt</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH42.png</t>
+  </si>
+  <si>
+    <t>Undersköterska</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH43.png</t>
+  </si>
+  <si>
+    <t>Arbetsledare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH44.png</t>
+  </si>
+  <si>
+    <t>Försäkringsrådgivare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH45.png</t>
+  </si>
+  <si>
+    <t>Vetrinär</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH46.png</t>
+  </si>
+  <si>
+    <t>Inköpare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH47.png</t>
+  </si>
+  <si>
+    <t>Plåtslagare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH48.png</t>
+  </si>
+  <si>
+    <t>Jurist</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH49.png</t>
+  </si>
+  <si>
+    <t>Hovmästare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH50.png</t>
+  </si>
+  <si>
+    <t>Bartender</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH51.png</t>
+  </si>
+  <si>
+    <t>Nätverkstekniker</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH52.png</t>
+  </si>
+  <si>
+    <t>Sjukgymnast</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH53.png</t>
+  </si>
+  <si>
+    <t>Lastbilschaufför</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH54.png</t>
+  </si>
+  <si>
+    <t>Trädgårdsmästare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH55.png</t>
+  </si>
+  <si>
+    <t>Apotekare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH56.png</t>
+  </si>
+  <si>
+    <t>Proffessor</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH57.png</t>
+  </si>
+  <si>
+    <t>Slaktare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH58.png</t>
+  </si>
+  <si>
+    <t>Tandläkare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH59.png</t>
+  </si>
+  <si>
+    <t>Körskollärare</t>
+  </si>
+  <si>
+    <t>Images_Faces/SH60.png</t>
+  </si>
+  <si>
+    <t>Polis</t>
+  </si>
+  <si>
+    <t>Enc-Rec_names</t>
+  </si>
+  <si>
+    <t>Enc-Rec_professions</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -578,32 +959,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -611,81 +983,350 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="25.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="9.14"/>
+    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" style="1"/>
+    <col min="3" max="3" width="27.26953125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.54296875" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="9.08984375" style="1"/>
+    <col min="1025" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,20 +1352,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -737,20 +1378,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -763,20 +1404,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -789,20 +1430,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -815,20 +1456,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -841,20 +1482,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -867,20 +1508,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -893,20 +1534,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -919,20 +1560,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -945,20 +1586,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -971,20 +1612,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -997,20 +1638,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1023,20 +1664,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1049,20 +1690,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1075,20 +1716,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1101,20 +1742,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1127,20 +1768,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1153,20 +1794,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1179,20 +1820,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1205,20 +1846,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1231,20 +1872,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1257,20 +1898,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1283,20 +1924,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1309,20 +1950,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="1">
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1335,20 +1976,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="1">
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1361,20 +2002,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="1">
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1387,20 +2028,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1413,20 +2054,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="1">
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1439,20 +2080,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="1">
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1465,20 +2106,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -1491,17 +2132,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -1517,17 +2158,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1543,17 +2184,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -1569,17 +2210,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -1595,17 +2236,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -1621,17 +2262,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -1647,17 +2288,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -1673,17 +2314,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -1699,17 +2340,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -1725,17 +2366,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="1">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -1751,17 +2392,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="1">
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -1777,17 +2418,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="1">
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -1803,17 +2444,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="1">
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -1829,17 +2470,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -1855,17 +2496,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -1881,17 +2522,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="1">
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -1907,17 +2548,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="1">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -1933,17 +2574,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="1">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -1959,17 +2600,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="1">
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -1984,19 +2625,19 @@
       <c r="H50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="1">
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -2011,19 +2652,19 @@
       <c r="H51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="1">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -2038,20 +2679,20 @@
       <c r="H52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I52" s="0"/>
-      <c r="J52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="1">
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D53" s="1" t="n">
+      <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -2066,20 +2707,20 @@
       <c r="H53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="1">
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -2094,20 +2735,20 @@
       <c r="H54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="1">
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="1" t="n">
+      <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -2122,20 +2763,20 @@
       <c r="H55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="1">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -2150,20 +2791,20 @@
       <c r="H56" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="1">
         <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D57" s="1" t="n">
+      <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -2178,20 +2819,20 @@
       <c r="H57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="1">
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="1" t="n">
+      <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -2206,20 +2847,20 @@
       <c r="H58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="1">
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -2234,19 +2875,19 @@
       <c r="H59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="1">
         <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="1" t="n">
+      <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -2261,20 +2902,20 @@
       <c r="H60" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I60" s="0"/>
-      <c r="J60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="1">
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -2289,9 +2930,9 @@
       <c r="H61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>154</v>
       </c>
@@ -2301,11 +2942,11 @@
       <c r="C62" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -2314,10 +2955,10 @@
       <c r="H62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I62" s="0"/>
-      <c r="J62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>154</v>
       </c>
@@ -2327,11 +2968,11 @@
       <c r="C63" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2" t="s">
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -2340,10 +2981,10 @@
       <c r="H63" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I63" s="0"/>
-      <c r="J63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>154</v>
       </c>
@@ -2353,11 +2994,11 @@
       <c r="C64" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2" t="s">
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -2366,10 +3007,10 @@
       <c r="H64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="0"/>
-      <c r="J64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>154</v>
       </c>
@@ -2379,11 +3020,11 @@
       <c r="C65" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2" t="s">
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -2392,24 +3033,24 @@
       <c r="H65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="0"/>
-      <c r="J65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2" t="s">
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -2418,10 +3059,10 @@
       <c r="H66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="0"/>
-      <c r="J66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>168</v>
       </c>
@@ -2431,13 +3072,13 @@
       <c r="C67" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -2446,10 +3087,10 @@
       <c r="H67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I67" s="0"/>
-      <c r="J67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>168</v>
       </c>
@@ -2459,13 +3100,13 @@
       <c r="C68" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -2474,10 +3115,10 @@
       <c r="H68" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I68" s="0"/>
-      <c r="J68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>168</v>
       </c>
@@ -2487,13 +3128,13 @@
       <c r="C69" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -2502,10 +3143,10 @@
       <c r="H69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I69" s="0"/>
-      <c r="J69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>168</v>
       </c>
@@ -2515,13 +3156,13 @@
       <c r="C70" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -2530,10 +3171,10 @@
       <c r="H70" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I70" s="0"/>
-      <c r="J70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>168</v>
       </c>
@@ -2543,13 +3184,13 @@
       <c r="C71" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -2558,179 +3199,894 @@
       <c r="H71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I71" s="0"/>
-      <c r="J71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="I73" s="0"/>
-      <c r="J73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="J74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="I75" s="0"/>
-      <c r="J75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="I76" s="0"/>
-      <c r="J76" s="0"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="J78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="J79" s="0"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>